--- a/Documentatie/RezultateExperimentale/W4W5_TerasaCameraSeara_CameraAerisita_Ne_0102_06.xlsx
+++ b/Documentatie/RezultateExperimentale/W4W5_TerasaCameraSeara_CameraAerisita_Ne_0102_06.xlsx
@@ -1811,24 +1811,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="105205120"/>
-        <c:axId val="116281344"/>
+        <c:axId val="121179136"/>
+        <c:axId val="121180928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105205120"/>
+        <c:axId val="121179136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116281344"/>
+        <c:crossAx val="121180928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116281344"/>
+        <c:axId val="121180928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,7 +1836,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105205120"/>
+        <c:crossAx val="121179136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1848,7 +1848,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2447,24 +2447,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="99398784"/>
-        <c:axId val="99400320"/>
+        <c:axId val="122159488"/>
+        <c:axId val="122161024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99398784"/>
+        <c:axId val="122159488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99400320"/>
+        <c:crossAx val="122161024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99400320"/>
+        <c:axId val="122161024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -2473,7 +2473,1870 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99398784"/>
+        <c:crossAx val="122159488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'W5'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>O3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'W5'!$B$2:$B$92</c:f>
+              <c:strCache>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>2/6/2020  11:11:17 AM - W5 Cam.Inchisa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2/6/2020 11:12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2/6/2020 11:13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2/6/2020 11:14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2/6/2020 11:15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2/6/2020 11:16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2/6/2020 11:17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2/6/2020 11:18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2/6/2020 11:19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2/6/2020 11:20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2/6/2020 11:21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2/6/2020 11:22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2/6/2020 11:23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2/6/2020 11:24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2/6/2020 11:25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2/6/2020 11:26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2/6/2020 11:27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2/6/2020 11:28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2/6/2020 11:29</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2/6/2020 11:30</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2/6/2020 11:31</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2/6/2020 11:32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2/6/2020 11:33</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2/6/2020 11:34</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2/6/2020 11:35</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2/6/2020 11:36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2/6/2020 11:37</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2/6/2020 11:38</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2/6/2020 11:39</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2/6/2020 11:40</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2/6/2020 11:43</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2/6/2020 11:44</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2/6/2020 11:45</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2/6/2020 11:46</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2/6/2020 11:47</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2/6/2020 11:50</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2/6/2020 11:51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2/6/2020 11:52</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2/6/2020 11:53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2/6/2020 11:54</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2/6/2020 11:55</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2/6/2020 11:56</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2/6/2020 11:57</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2/6/2020 11:58</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2/6/2020 11:59</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2/6/2020 12:00</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2/6/2020  2:12:52 AM - W5 Cam. Deschisa</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2/6/2020 2:13</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2/6/2020 2:14</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2/6/2020 2:15</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2/6/2020 2:16</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2/6/2020 2:17</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2/6/2020 2:18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2/6/2020 2:19</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2/6/2020 2:21</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2/6/2020 2:22</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2/6/2020 2:23</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2/6/2020 2:24</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2/6/2020 2:25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2/6/2020 2:26</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2/6/2020 2:29</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2/6/2020 2:30</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2/6/2020 2:31</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2/6/2020 2:32</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2/6/2020 2:33</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2/6/2020 2:34</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2/6/2020 2:35</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2/6/2020 2:36</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2/6/2020 2:37</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2/6/2020 2:38</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2/6/2020 2:39</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2/6/2020 2:40</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2/6/2020 2:41</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2/6/2020 2:42</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2/6/2020 2:43</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2/6/2020 2:44</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2/6/2020 2:45</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2/6/2020 2:46</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2/6/2020 2:52</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2/6/2020 2:53</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2/6/2020 2:54</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2/6/2020 2:55</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2/6/2020 2:56</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2/6/2020 2:57</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2/6/2020 2:58</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2/6/2020 2:59</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2/6/2020 3:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2/6/2020 3:01</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2/6/2020 3:02</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2/6/2020 3:03</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2/6/2020 3:04</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'W5'!$F$2:$F$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="122198272"/>
+        <c:axId val="122200064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="122198272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="122200064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="122200064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="122198272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.4762070304125941E-2"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.84629747440510383"/>
+          <c:h val="0.56604950422863842"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'W5'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'W5'!$B$2:$B$92</c:f>
+              <c:strCache>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>2/6/2020  11:11:17 AM - W5 Cam.Inchisa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2/6/2020 11:12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2/6/2020 11:13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2/6/2020 11:14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2/6/2020 11:15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2/6/2020 11:16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2/6/2020 11:17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2/6/2020 11:18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2/6/2020 11:19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2/6/2020 11:20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2/6/2020 11:21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2/6/2020 11:22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2/6/2020 11:23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2/6/2020 11:24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2/6/2020 11:25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2/6/2020 11:26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2/6/2020 11:27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2/6/2020 11:28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2/6/2020 11:29</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2/6/2020 11:30</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2/6/2020 11:31</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2/6/2020 11:32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2/6/2020 11:33</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2/6/2020 11:34</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2/6/2020 11:35</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2/6/2020 11:36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2/6/2020 11:37</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2/6/2020 11:38</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2/6/2020 11:39</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2/6/2020 11:40</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2/6/2020 11:43</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2/6/2020 11:44</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2/6/2020 11:45</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2/6/2020 11:46</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2/6/2020 11:47</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2/6/2020 11:50</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2/6/2020 11:51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2/6/2020 11:52</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2/6/2020 11:53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2/6/2020 11:54</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2/6/2020 11:55</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2/6/2020 11:56</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2/6/2020 11:57</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2/6/2020 11:58</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2/6/2020 11:59</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2/6/2020 12:00</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2/6/2020  2:12:52 AM - W5 Cam. Deschisa</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2/6/2020 2:13</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2/6/2020 2:14</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2/6/2020 2:15</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2/6/2020 2:16</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2/6/2020 2:17</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2/6/2020 2:18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2/6/2020 2:19</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2/6/2020 2:21</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2/6/2020 2:22</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2/6/2020 2:23</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2/6/2020 2:24</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2/6/2020 2:25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2/6/2020 2:26</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2/6/2020 2:29</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2/6/2020 2:30</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2/6/2020 2:31</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2/6/2020 2:32</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2/6/2020 2:33</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2/6/2020 2:34</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2/6/2020 2:35</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2/6/2020 2:36</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2/6/2020 2:37</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2/6/2020 2:38</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2/6/2020 2:39</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2/6/2020 2:40</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2/6/2020 2:41</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2/6/2020 2:42</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2/6/2020 2:43</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2/6/2020 2:44</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2/6/2020 2:45</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2/6/2020 2:46</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2/6/2020 2:52</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2/6/2020 2:53</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2/6/2020 2:54</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2/6/2020 2:55</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2/6/2020 2:56</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2/6/2020 2:57</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2/6/2020 2:58</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2/6/2020 2:59</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2/6/2020 3:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2/6/2020 3:01</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2/6/2020 3:02</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2/6/2020 3:03</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2/6/2020 3:04</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'W5'!$L$2:$L$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>20.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.02</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18.02</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>18.02</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>18.02</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>18.02</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>18.02</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>18.02</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>18.02</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>18.02</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>18.02</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>17.98</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>17.98</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>17.98</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>17.98</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>17.98</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>17.98</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>17.98</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>17.940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>17.940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>17.940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>17.940000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'W5'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Humid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'W5'!$B$2:$B$92</c:f>
+              <c:strCache>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>2/6/2020  11:11:17 AM - W5 Cam.Inchisa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2/6/2020 11:12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2/6/2020 11:13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2/6/2020 11:14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2/6/2020 11:15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2/6/2020 11:16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2/6/2020 11:17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2/6/2020 11:18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2/6/2020 11:19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2/6/2020 11:20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2/6/2020 11:21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2/6/2020 11:22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2/6/2020 11:23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2/6/2020 11:24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2/6/2020 11:25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2/6/2020 11:26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2/6/2020 11:27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2/6/2020 11:28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2/6/2020 11:29</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2/6/2020 11:30</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2/6/2020 11:31</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2/6/2020 11:32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2/6/2020 11:33</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2/6/2020 11:34</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2/6/2020 11:35</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2/6/2020 11:36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2/6/2020 11:37</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2/6/2020 11:38</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2/6/2020 11:39</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2/6/2020 11:40</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2/6/2020 11:43</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2/6/2020 11:44</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2/6/2020 11:45</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2/6/2020 11:46</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2/6/2020 11:47</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2/6/2020 11:50</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2/6/2020 11:51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2/6/2020 11:52</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2/6/2020 11:53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2/6/2020 11:54</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2/6/2020 11:55</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2/6/2020 11:56</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2/6/2020 11:57</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2/6/2020 11:58</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2/6/2020 11:59</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2/6/2020 12:00</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2/6/2020  2:12:52 AM - W5 Cam. Deschisa</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2/6/2020 2:13</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2/6/2020 2:14</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2/6/2020 2:15</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2/6/2020 2:16</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2/6/2020 2:17</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2/6/2020 2:18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2/6/2020 2:19</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2/6/2020 2:21</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2/6/2020 2:22</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2/6/2020 2:23</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2/6/2020 2:24</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2/6/2020 2:25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2/6/2020 2:26</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2/6/2020 2:29</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2/6/2020 2:30</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2/6/2020 2:31</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2/6/2020 2:32</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2/6/2020 2:33</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2/6/2020 2:34</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2/6/2020 2:35</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2/6/2020 2:36</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2/6/2020 2:37</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2/6/2020 2:38</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2/6/2020 2:39</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2/6/2020 2:40</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2/6/2020 2:41</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2/6/2020 2:42</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2/6/2020 2:43</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2/6/2020 2:44</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2/6/2020 2:45</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2/6/2020 2:46</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2/6/2020 2:52</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2/6/2020 2:53</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2/6/2020 2:54</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2/6/2020 2:55</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2/6/2020 2:56</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2/6/2020 2:57</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2/6/2020 2:58</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2/6/2020 2:59</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2/6/2020 3:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2/6/2020 3:01</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2/6/2020 3:02</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2/6/2020 3:03</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2/6/2020 3:04</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'W5'!$M$2:$M$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>65.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>65.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>49.66</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.25</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48.25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>48.25</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>48.25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>48.25</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>48.25</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>48.25</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>48.25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>48.25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>48.25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>47.33</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>47.33</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>47.33</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>47.33</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>47.33</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>47.33</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>47.33</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>47.33</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>47.33</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>46.75</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>46.75</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>46.75</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>46.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="122247040"/>
+        <c:axId val="122248576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="122247040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="122248576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="122248576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="122247040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2492,1870 +4355,13 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'W5'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>O3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'W5'!$B$2:$B$92</c:f>
-              <c:strCache>
-                <c:ptCount val="91"/>
-                <c:pt idx="0">
-                  <c:v>2/6/2020  11:11:17 AM - W5 Cam.Inchisa</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2/6/2020 11:12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2/6/2020 11:13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2/6/2020 11:14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2/6/2020 11:15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2/6/2020 11:16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2/6/2020 11:17</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2/6/2020 11:18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2/6/2020 11:19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2/6/2020 11:20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2/6/2020 11:21</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2/6/2020 11:22</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2/6/2020 11:23</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2/6/2020 11:24</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2/6/2020 11:25</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2/6/2020 11:26</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2/6/2020 11:27</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2/6/2020 11:28</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2/6/2020 11:29</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2/6/2020 11:30</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2/6/2020 11:31</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2/6/2020 11:32</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2/6/2020 11:33</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2/6/2020 11:34</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2/6/2020 11:35</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2/6/2020 11:36</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2/6/2020 11:37</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2/6/2020 11:38</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2/6/2020 11:39</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2/6/2020 11:40</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2/6/2020 11:43</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2/6/2020 11:44</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2/6/2020 11:45</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2/6/2020 11:46</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2/6/2020 11:47</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2/6/2020 11:50</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2/6/2020 11:51</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2/6/2020 11:52</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2/6/2020 11:53</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2/6/2020 11:54</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2/6/2020 11:55</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2/6/2020 11:56</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2/6/2020 11:57</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2/6/2020 11:58</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2/6/2020 11:59</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2/6/2020 12:00</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2/6/2020  2:12:52 AM - W5 Cam. Deschisa</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2/6/2020 2:13</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2/6/2020 2:14</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2/6/2020 2:15</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2/6/2020 2:16</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2/6/2020 2:17</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2/6/2020 2:18</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2/6/2020 2:19</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2/6/2020 2:21</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2/6/2020 2:22</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2/6/2020 2:23</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2/6/2020 2:24</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2/6/2020 2:25</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2/6/2020 2:26</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2/6/2020 2:29</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2/6/2020 2:30</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2/6/2020 2:31</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2/6/2020 2:32</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2/6/2020 2:33</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2/6/2020 2:34</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2/6/2020 2:35</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2/6/2020 2:36</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2/6/2020 2:37</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2/6/2020 2:38</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2/6/2020 2:39</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2/6/2020 2:40</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2/6/2020 2:41</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2/6/2020 2:42</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2/6/2020 2:43</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2/6/2020 2:44</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2/6/2020 2:45</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2/6/2020 2:46</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2/6/2020 2:52</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2/6/2020 2:53</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2/6/2020 2:54</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2/6/2020 2:55</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2/6/2020 2:56</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2/6/2020 2:57</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2/6/2020 2:58</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2/6/2020 2:59</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2/6/2020 3:00</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2/6/2020 3:01</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2/6/2020 3:02</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2/6/2020 3:03</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2/6/2020 3:04</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'W5'!$F$2:$F$92</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>125</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="99417088"/>
-        <c:axId val="99418880"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="99417088"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99418880"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="99418880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99417088"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.4762070304125927E-2"/>
-          <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.84629747440510372"/>
-          <c:h val="0.56604950422863831"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'W5'!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Temp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'W5'!$B$2:$B$92</c:f>
-              <c:strCache>
-                <c:ptCount val="91"/>
-                <c:pt idx="0">
-                  <c:v>2/6/2020  11:11:17 AM - W5 Cam.Inchisa</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2/6/2020 11:12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2/6/2020 11:13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2/6/2020 11:14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2/6/2020 11:15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2/6/2020 11:16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2/6/2020 11:17</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2/6/2020 11:18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2/6/2020 11:19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2/6/2020 11:20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2/6/2020 11:21</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2/6/2020 11:22</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2/6/2020 11:23</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2/6/2020 11:24</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2/6/2020 11:25</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2/6/2020 11:26</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2/6/2020 11:27</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2/6/2020 11:28</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2/6/2020 11:29</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2/6/2020 11:30</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2/6/2020 11:31</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2/6/2020 11:32</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2/6/2020 11:33</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2/6/2020 11:34</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2/6/2020 11:35</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2/6/2020 11:36</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2/6/2020 11:37</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2/6/2020 11:38</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2/6/2020 11:39</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2/6/2020 11:40</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2/6/2020 11:43</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2/6/2020 11:44</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2/6/2020 11:45</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2/6/2020 11:46</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2/6/2020 11:47</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2/6/2020 11:50</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2/6/2020 11:51</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2/6/2020 11:52</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2/6/2020 11:53</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2/6/2020 11:54</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2/6/2020 11:55</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2/6/2020 11:56</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2/6/2020 11:57</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2/6/2020 11:58</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2/6/2020 11:59</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2/6/2020 12:00</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2/6/2020  2:12:52 AM - W5 Cam. Deschisa</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2/6/2020 2:13</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2/6/2020 2:14</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2/6/2020 2:15</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2/6/2020 2:16</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2/6/2020 2:17</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2/6/2020 2:18</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2/6/2020 2:19</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2/6/2020 2:21</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2/6/2020 2:22</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2/6/2020 2:23</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2/6/2020 2:24</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2/6/2020 2:25</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2/6/2020 2:26</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2/6/2020 2:29</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2/6/2020 2:30</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2/6/2020 2:31</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2/6/2020 2:32</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2/6/2020 2:33</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2/6/2020 2:34</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2/6/2020 2:35</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2/6/2020 2:36</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2/6/2020 2:37</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2/6/2020 2:38</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2/6/2020 2:39</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2/6/2020 2:40</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2/6/2020 2:41</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2/6/2020 2:42</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2/6/2020 2:43</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2/6/2020 2:44</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2/6/2020 2:45</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2/6/2020 2:46</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2/6/2020 2:52</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2/6/2020 2:53</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2/6/2020 2:54</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2/6/2020 2:55</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2/6/2020 2:56</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2/6/2020 2:57</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2/6/2020 2:58</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2/6/2020 2:59</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2/6/2020 3:00</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2/6/2020 3:01</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2/6/2020 3:02</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2/6/2020 3:03</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2/6/2020 3:04</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'W5'!$L$2:$L$92</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
-                <c:pt idx="0">
-                  <c:v>20.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20.12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20.12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20.12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20.12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20.170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20.170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20.170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20.170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20.170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20.170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>18.149999999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>18.02</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>18.02</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>18.02</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>18.02</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>18.02</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>18.02</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>18.02</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>18.02</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>18.02</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>18.02</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>17.98</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>17.98</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>17.98</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>17.98</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>17.98</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>17.98</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>17.98</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>17.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>17.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>17.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>17.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>17.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>17.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>17.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>17.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>17.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>17.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>17.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>17.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>17.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>17.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>17.940000000000001</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>17.940000000000001</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>17.940000000000001</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>17.940000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'W5'!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Humid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'W5'!$B$2:$B$92</c:f>
-              <c:strCache>
-                <c:ptCount val="91"/>
-                <c:pt idx="0">
-                  <c:v>2/6/2020  11:11:17 AM - W5 Cam.Inchisa</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2/6/2020 11:12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2/6/2020 11:13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2/6/2020 11:14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2/6/2020 11:15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2/6/2020 11:16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2/6/2020 11:17</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2/6/2020 11:18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2/6/2020 11:19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2/6/2020 11:20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2/6/2020 11:21</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2/6/2020 11:22</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2/6/2020 11:23</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2/6/2020 11:24</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2/6/2020 11:25</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2/6/2020 11:26</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2/6/2020 11:27</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2/6/2020 11:28</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2/6/2020 11:29</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2/6/2020 11:30</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2/6/2020 11:31</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2/6/2020 11:32</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2/6/2020 11:33</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2/6/2020 11:34</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2/6/2020 11:35</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2/6/2020 11:36</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2/6/2020 11:37</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2/6/2020 11:38</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2/6/2020 11:39</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2/6/2020 11:40</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2/6/2020 11:43</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2/6/2020 11:44</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2/6/2020 11:45</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2/6/2020 11:46</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2/6/2020 11:47</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2/6/2020 11:50</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2/6/2020 11:51</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2/6/2020 11:52</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2/6/2020 11:53</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2/6/2020 11:54</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2/6/2020 11:55</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2/6/2020 11:56</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2/6/2020 11:57</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2/6/2020 11:58</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2/6/2020 11:59</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2/6/2020 12:00</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2/6/2020  2:12:52 AM - W5 Cam. Deschisa</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2/6/2020 2:13</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2/6/2020 2:14</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2/6/2020 2:15</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2/6/2020 2:16</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2/6/2020 2:17</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2/6/2020 2:18</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2/6/2020 2:19</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2/6/2020 2:21</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2/6/2020 2:22</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2/6/2020 2:23</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2/6/2020 2:24</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2/6/2020 2:25</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2/6/2020 2:26</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2/6/2020 2:29</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2/6/2020 2:30</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2/6/2020 2:31</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2/6/2020 2:32</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2/6/2020 2:33</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2/6/2020 2:34</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2/6/2020 2:35</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2/6/2020 2:36</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2/6/2020 2:37</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2/6/2020 2:38</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2/6/2020 2:39</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2/6/2020 2:40</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2/6/2020 2:41</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2/6/2020 2:42</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2/6/2020 2:43</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2/6/2020 2:44</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2/6/2020 2:45</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2/6/2020 2:46</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2/6/2020 2:52</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2/6/2020 2:53</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2/6/2020 2:54</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2/6/2020 2:55</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2/6/2020 2:56</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2/6/2020 2:57</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2/6/2020 2:58</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2/6/2020 2:59</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2/6/2020 3:00</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2/6/2020 3:01</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2/6/2020 3:02</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2/6/2020 3:03</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2/6/2020 3:04</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'W5'!$M$2:$M$92</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
-                <c:pt idx="0">
-                  <c:v>66.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>66.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65.75</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>65.75</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>65.75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>65.75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65.75</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>65.75</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>65.75</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>65.75</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>65.75</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>65.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>65.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>65.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>65.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>65.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>65.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>65.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>65.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>65.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>49.66</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48.25</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48.25</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>48.25</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>48.25</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>48.25</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>48.25</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>48.25</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>48.25</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>48.25</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>48.25</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>47.6</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>47.6</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>47.6</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>47.6</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>47.6</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>47.6</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>47.6</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>47.33</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>47.33</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>47.33</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>47.33</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>47.33</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>47.33</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>47.33</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>47.33</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>47.33</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>46.75</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>46.75</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>46.75</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>46.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="99433088"/>
-        <c:axId val="99455360"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="99433088"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99455360"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="99455360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="10"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99433088"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -4942,24 +4948,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="99475840"/>
-        <c:axId val="99477376"/>
+        <c:axId val="122260864"/>
+        <c:axId val="122287232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99475840"/>
+        <c:axId val="122260864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99477376"/>
+        <c:crossAx val="122287232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99477376"/>
+        <c:axId val="122287232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4967,19 +4973,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99475840"/>
+        <c:crossAx val="122260864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4989,7 +4996,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -5576,24 +5585,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="99490048"/>
-        <c:axId val="99491840"/>
+        <c:axId val="122316288"/>
+        <c:axId val="122317824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99490048"/>
+        <c:axId val="122316288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99491840"/>
+        <c:crossAx val="122317824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99491840"/>
+        <c:axId val="122317824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="68"/>
@@ -5603,19 +5612,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99490048"/>
+        <c:crossAx val="122316288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6776,24 +6786,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="116848512"/>
-        <c:axId val="116850048"/>
+        <c:axId val="121221888"/>
+        <c:axId val="121223424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116848512"/>
+        <c:axId val="121221888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116850048"/>
+        <c:crossAx val="121223424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116850048"/>
+        <c:axId val="121223424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6801,7 +6811,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116848512"/>
+        <c:crossAx val="121221888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6813,7 +6823,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7976,24 +7986,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="99232000"/>
-        <c:axId val="99233792"/>
+        <c:axId val="121522048"/>
+        <c:axId val="121523584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99232000"/>
+        <c:axId val="121522048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="t"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99233792"/>
+        <c:crossAx val="121523584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99233792"/>
+        <c:axId val="121523584"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -8001,7 +8011,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99232000"/>
+        <c:crossAx val="121522048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8014,7 +8024,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8631,24 +8641,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="99250944"/>
-        <c:axId val="99252480"/>
+        <c:axId val="121975168"/>
+        <c:axId val="121976704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99250944"/>
+        <c:axId val="121975168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99252480"/>
+        <c:crossAx val="121976704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99252480"/>
+        <c:axId val="121976704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8656,7 +8666,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99250944"/>
+        <c:crossAx val="121975168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8669,7 +8679,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9286,24 +9296,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="99269248"/>
-        <c:axId val="99275136"/>
+        <c:axId val="122001664"/>
+        <c:axId val="122003456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99269248"/>
+        <c:axId val="122001664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99275136"/>
+        <c:crossAx val="122003456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99275136"/>
+        <c:axId val="122003456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -9312,7 +9322,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99269248"/>
+        <c:crossAx val="122001664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9325,7 +9335,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9335,7 +9345,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -9940,24 +9952,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="99287808"/>
-        <c:axId val="99289344"/>
+        <c:axId val="121917824"/>
+        <c:axId val="121919360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99287808"/>
+        <c:axId val="121917824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99289344"/>
+        <c:crossAx val="121919360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99289344"/>
+        <c:axId val="121919360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9965,19 +9977,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99287808"/>
+        <c:crossAx val="121917824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9987,7 +10000,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -10592,24 +10607,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="99310208"/>
-        <c:axId val="99316096"/>
+        <c:axId val="121932032"/>
+        <c:axId val="121950208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99310208"/>
+        <c:axId val="121932032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99316096"/>
+        <c:crossAx val="121950208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99316096"/>
+        <c:axId val="121950208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10617,19 +10632,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99310208"/>
+        <c:crossAx val="121932032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11228,24 +11244,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="99357824"/>
-        <c:axId val="99359360"/>
+        <c:axId val="122151296"/>
+        <c:axId val="122152832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99357824"/>
+        <c:axId val="122151296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99359360"/>
+        <c:crossAx val="122152832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99359360"/>
+        <c:axId val="122152832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11253,7 +11269,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99357824"/>
+        <c:crossAx val="122151296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11266,7 +11282,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11865,24 +11881,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="99372032"/>
-        <c:axId val="99373824"/>
+        <c:axId val="122067200"/>
+        <c:axId val="122068992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99372032"/>
+        <c:axId val="122067200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99373824"/>
+        <c:crossAx val="122068992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99373824"/>
+        <c:axId val="122068992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11890,7 +11906,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99372032"/>
+        <c:crossAx val="122067200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11903,7 +11919,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -33941,8 +33957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -55316,10 +55332,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -59792,6 +59808,106 @@
         <v>16</v>
       </c>
     </row>
+    <row r="97" spans="3:14">
+      <c r="C97">
+        <f>AVERAGE(C2:C41)</f>
+        <v>500</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ref="D97:N97" si="0">AVERAGE(D2:D41)</f>
+        <v>125.125</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="0"/>
+        <v>136.69999999999999</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="0"/>
+        <v>13.675000000000001</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="0"/>
+        <v>2989533.55</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="0"/>
+        <v>5624769.8250000002</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="0"/>
+        <v>1684647.25</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="0"/>
+        <v>5628028.375</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="0"/>
+        <v>655.34999999999968</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="0"/>
+        <v>655.34999999999968</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14">
+      <c r="C98">
+        <f>AVERAGE(C43:C95)</f>
+        <v>500</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ref="D98:N98" si="1">AVERAGE(D43:D95)</f>
+        <v>133.50943396226415</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>78.301886792452834</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="1"/>
+        <v>29.320754716981131</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="1"/>
+        <v>2837719.4528301889</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="1"/>
+        <v>5623915.886792453</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="1"/>
+        <v>1680921.6226415094</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="1"/>
+        <v>5626675.4716981128</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="1"/>
+        <v>655.34999999999934</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="1"/>
+        <v>655.34999999999934</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000000005E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -59800,10 +59916,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O92"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView topLeftCell="L13" workbookViewId="0">
-      <selection activeCell="L86" sqref="L86"/>
+    <sheetView topLeftCell="B73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -64134,6 +64250,146 @@
       </c>
       <c r="O92" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="C94">
+        <f>AVERAGE(C2:C47)</f>
+        <v>29.173913043478262</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ref="D94:N94" si="0">AVERAGE(D2:D47)</f>
+        <v>94.956521739130437</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="0"/>
+        <v>181.39130434782609</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="0"/>
+        <v>110.08695652173913</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="0"/>
+        <v>1689970.6521739131</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="0"/>
+        <v>5626879.1304347822</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="0"/>
+        <v>1689353.956521739</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="0"/>
+        <v>5624120.6304347822</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="0"/>
+        <v>181.39130434782609</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="0"/>
+        <v>20.225869565217405</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="0"/>
+        <v>65.159782608695664</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="0"/>
+        <v>999.55065217391325</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="C95">
+        <f>AVERAGE(C48:C92)</f>
+        <v>15.155555555555555</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ref="D95:N95" si="1">AVERAGE(D48:D92)</f>
+        <v>95.533333333333331</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>146.48888888888888</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>96.533333333333331</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="1"/>
+        <v>1684140.5333333334</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="1"/>
+        <v>5627017.0888888892</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="1"/>
+        <v>1685725.3333333333</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="1"/>
+        <v>5624442.0666666664</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="1"/>
+        <v>147.06666666666666</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="1"/>
+        <v>17.932666666666673</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="1"/>
+        <v>47.473999999999997</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="1"/>
+        <v>999.35622222222264</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13">
+      <c r="C98">
+        <v>29.17</v>
+      </c>
+      <c r="D98">
+        <v>94.95</v>
+      </c>
+      <c r="E98">
+        <v>181.39</v>
+      </c>
+      <c r="F98">
+        <v>110.08</v>
+      </c>
+      <c r="L98">
+        <v>20.22</v>
+      </c>
+      <c r="M98">
+        <v>65.150000000000006</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13">
+      <c r="C99">
+        <v>15.15</v>
+      </c>
+      <c r="D99">
+        <v>95.53</v>
+      </c>
+      <c r="E99">
+        <v>146.47999999999999</v>
+      </c>
+      <c r="F99">
+        <v>96.53</v>
+      </c>
+      <c r="L99">
+        <v>17.93</v>
+      </c>
+      <c r="M99">
+        <v>47.47</v>
       </c>
     </row>
   </sheetData>

--- a/Documentatie/RezultateExperimentale/W4W5_TerasaCameraSeara_CameraAerisita_Ne_0102_06.xlsx
+++ b/Documentatie/RezultateExperimentale/W4W5_TerasaCameraSeara_CameraAerisita_Ne_0102_06.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="630" windowWidth="19575" windowHeight="7380" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="630" windowWidth="19575" windowHeight="7380" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="W4W5_TerasaCameraSeara_CameraAe" sheetId="1" r:id="rId1"/>
@@ -1811,24 +1811,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="121179136"/>
-        <c:axId val="121180928"/>
+        <c:axId val="116198400"/>
+        <c:axId val="116200192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121179136"/>
+        <c:axId val="116198400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121180928"/>
+        <c:crossAx val="116200192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121180928"/>
+        <c:axId val="116200192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,7 +1836,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121179136"/>
+        <c:crossAx val="116198400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1848,7 +1848,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2447,24 +2447,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="122159488"/>
-        <c:axId val="122161024"/>
+        <c:axId val="144445824"/>
+        <c:axId val="144447360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122159488"/>
+        <c:axId val="144445824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122161024"/>
+        <c:crossAx val="144447360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122161024"/>
+        <c:axId val="144447360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -2473,7 +2473,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122159488"/>
+        <c:crossAx val="144445824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2486,7 +2486,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3085,24 +3085,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="122198272"/>
-        <c:axId val="122200064"/>
+        <c:axId val="144484608"/>
+        <c:axId val="144486400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122198272"/>
+        <c:axId val="144484608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122200064"/>
+        <c:crossAx val="144486400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122200064"/>
+        <c:axId val="144486400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3110,7 +3110,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122198272"/>
+        <c:crossAx val="144484608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3123,7 +3123,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3139,10 +3139,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4762070304125941E-2"/>
+          <c:x val="4.4762070304125962E-2"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.84629747440510383"/>
-          <c:h val="0.56604950422863842"/>
+          <c:w val="0.84629747440510394"/>
+          <c:h val="0.56604950422863853"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4310,24 +4310,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="122247040"/>
-        <c:axId val="122248576"/>
+        <c:axId val="144525184"/>
+        <c:axId val="144526720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122247040"/>
+        <c:axId val="144525184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122248576"/>
+        <c:crossAx val="144526720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122248576"/>
+        <c:axId val="144526720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -4336,7 +4336,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122247040"/>
+        <c:crossAx val="144525184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4349,7 +4349,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4948,24 +4948,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="122260864"/>
-        <c:axId val="122287232"/>
+        <c:axId val="144539008"/>
+        <c:axId val="144569472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122260864"/>
+        <c:axId val="144539008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122287232"/>
+        <c:crossAx val="144569472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122287232"/>
+        <c:axId val="144569472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4973,7 +4973,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122260864"/>
+        <c:crossAx val="144539008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4986,7 +4986,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5585,24 +5585,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="122316288"/>
-        <c:axId val="122317824"/>
+        <c:axId val="144594432"/>
+        <c:axId val="144595968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122316288"/>
+        <c:axId val="144594432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122317824"/>
+        <c:crossAx val="144595968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122317824"/>
+        <c:axId val="144595968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="68"/>
@@ -5612,7 +5612,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122316288"/>
+        <c:crossAx val="144594432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5625,7 +5625,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6786,24 +6786,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="121221888"/>
-        <c:axId val="121223424"/>
+        <c:axId val="116245248"/>
+        <c:axId val="116246784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121221888"/>
+        <c:axId val="116245248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121223424"/>
+        <c:crossAx val="116246784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121223424"/>
+        <c:axId val="116246784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6811,7 +6811,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121221888"/>
+        <c:crossAx val="116245248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6823,7 +6823,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7986,24 +7986,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="121522048"/>
-        <c:axId val="121523584"/>
+        <c:axId val="116672384"/>
+        <c:axId val="116673920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121522048"/>
+        <c:axId val="116672384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="t"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121523584"/>
+        <c:crossAx val="116673920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121523584"/>
+        <c:axId val="116673920"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -8011,7 +8011,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121522048"/>
+        <c:crossAx val="116672384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8024,7 +8024,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8641,24 +8641,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="121975168"/>
-        <c:axId val="121976704"/>
+        <c:axId val="116806016"/>
+        <c:axId val="116807552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121975168"/>
+        <c:axId val="116806016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121976704"/>
+        <c:crossAx val="116807552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121976704"/>
+        <c:axId val="116807552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8666,7 +8666,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121975168"/>
+        <c:crossAx val="116806016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8679,7 +8679,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9296,24 +9296,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="122001664"/>
-        <c:axId val="122003456"/>
+        <c:axId val="116828416"/>
+        <c:axId val="116830208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122001664"/>
+        <c:axId val="116828416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122003456"/>
+        <c:crossAx val="116830208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122003456"/>
+        <c:axId val="116830208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -9322,7 +9322,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122001664"/>
+        <c:crossAx val="116828416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9335,7 +9335,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9952,24 +9952,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="121917824"/>
-        <c:axId val="121919360"/>
+        <c:axId val="118186368"/>
+        <c:axId val="118187904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121917824"/>
+        <c:axId val="118186368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121919360"/>
+        <c:crossAx val="118187904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121919360"/>
+        <c:axId val="118187904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9977,7 +9977,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121917824"/>
+        <c:crossAx val="118186368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9990,7 +9990,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10607,24 +10607,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="121932032"/>
-        <c:axId val="121950208"/>
+        <c:axId val="118200576"/>
+        <c:axId val="118214656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121932032"/>
+        <c:axId val="118200576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121950208"/>
+        <c:crossAx val="118214656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121950208"/>
+        <c:axId val="118214656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10632,7 +10632,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121932032"/>
+        <c:crossAx val="118200576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10645,7 +10645,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11244,24 +11244,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="122151296"/>
-        <c:axId val="122152832"/>
+        <c:axId val="118358400"/>
+        <c:axId val="118359936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122151296"/>
+        <c:axId val="118358400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122152832"/>
+        <c:crossAx val="118359936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122152832"/>
+        <c:axId val="118359936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11269,7 +11269,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122151296"/>
+        <c:crossAx val="118358400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11282,7 +11282,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11881,24 +11881,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="122067200"/>
-        <c:axId val="122068992"/>
+        <c:axId val="118401280"/>
+        <c:axId val="118403072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122067200"/>
+        <c:axId val="118401280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122068992"/>
+        <c:crossAx val="118403072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122068992"/>
+        <c:axId val="118403072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11906,7 +11906,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122067200"/>
+        <c:crossAx val="118401280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11919,7 +11919,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -33957,7 +33957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -55334,8 +55334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -59918,8 +59918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView topLeftCell="B73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K99" sqref="K99"/>
+    <sheetView topLeftCell="I13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -64258,47 +64258,47 @@
         <v>29.173913043478262</v>
       </c>
       <c r="D94">
-        <f t="shared" ref="D94:N94" si="0">AVERAGE(D2:D47)</f>
+        <f>AVERAGE(D2:D47)</f>
         <v>94.956521739130437</v>
       </c>
       <c r="E94">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E2:E47)</f>
         <v>181.39130434782609</v>
       </c>
       <c r="F94">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F2:F47)</f>
         <v>110.08695652173913</v>
       </c>
       <c r="G94">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G2:G47)</f>
         <v>1689970.6521739131</v>
       </c>
       <c r="H94">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H2:H47)</f>
         <v>5626879.1304347822</v>
       </c>
       <c r="I94">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(I2:I47)</f>
         <v>1689353.956521739</v>
       </c>
       <c r="J94">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J2:J47)</f>
         <v>5624120.6304347822</v>
       </c>
       <c r="K94">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(K2:K47)</f>
         <v>181.39130434782609</v>
       </c>
       <c r="L94">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(L2:L47)</f>
         <v>20.225869565217405</v>
       </c>
       <c r="M94">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(M2:M47)</f>
         <v>65.159782608695664</v>
       </c>
       <c r="N94">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(N2:N47)</f>
         <v>999.55065217391325</v>
       </c>
     </row>
@@ -64308,47 +64308,47 @@
         <v>15.155555555555555</v>
       </c>
       <c r="D95">
-        <f t="shared" ref="D95:N95" si="1">AVERAGE(D48:D92)</f>
+        <f t="shared" ref="D95:N95" si="0">AVERAGE(D48:D92)</f>
         <v>95.533333333333331</v>
       </c>
       <c r="E95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>146.48888888888888</v>
       </c>
       <c r="F95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>96.533333333333331</v>
       </c>
       <c r="G95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1684140.5333333334</v>
       </c>
       <c r="H95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5627017.0888888892</v>
       </c>
       <c r="I95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1685725.3333333333</v>
       </c>
       <c r="J95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5624442.0666666664</v>
       </c>
       <c r="K95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>147.06666666666666</v>
       </c>
       <c r="L95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17.932666666666673</v>
       </c>
       <c r="M95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>47.473999999999997</v>
       </c>
       <c r="N95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>999.35622222222264</v>
       </c>
     </row>
@@ -64400,10 +64400,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -64458,7 +64458,7 @@
     <row r="2" spans="1:15">
       <c r="C2">
         <f>(((  ((G2*298)/1000000000) - 0.5) /350000)*1000000000)/6.11</f>
-        <v>1.3404984802431719</v>
+        <v>164.36398690671029</v>
       </c>
       <c r="D2">
         <f>(((1.6775 - ((H2*298)/1000000000))/350000)*1000000000)/0.01648</f>
@@ -64472,8 +64472,8 @@
         <f>(((1.6775 - ((J2*298)/1000000000))/350000)*1000000000)/0.06773</f>
         <v>58.575857923268167</v>
       </c>
-      <c r="G2">
-        <v>1687472</v>
+      <c r="G2" s="3">
+        <v>2857357</v>
       </c>
       <c r="H2">
         <v>5627326</v>
@@ -64483,6 +64483,454 @@
       </c>
       <c r="J2">
         <v>5624535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3">
+        <v>184.67</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C47" si="0">(((  ((G3*298)/1000000000) - 0.5) /350000)*1000000000)/6.11</f>
+        <v>164.33193640402149</v>
+      </c>
+      <c r="G3">
+        <v>2857127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>164.33193640402149</v>
+      </c>
+      <c r="G4">
+        <v>2857127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>164.2545971475333</v>
+      </c>
+      <c r="G5">
+        <v>2856572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>164.20958709375731</v>
+      </c>
+      <c r="G6">
+        <v>2856249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>164.11162403553894</v>
+      </c>
+      <c r="G7">
+        <v>2855546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>164.11831283610007</v>
+      </c>
+      <c r="G8">
+        <v>2855594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>164.05713818096794</v>
+      </c>
+      <c r="G9">
+        <v>2855155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>164.04710498012622</v>
+      </c>
+      <c r="G10">
+        <v>2855083</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="C11">
+        <f>(((  ((G11*298)/1000000000) - 0.5) /350000)*1000000000)/6.11</f>
+        <v>163.98509422492401</v>
+      </c>
+      <c r="G11">
+        <v>2854638</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>161.92661585223289</v>
+      </c>
+      <c r="G12">
+        <v>2839866</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>163.88531961655369</v>
+      </c>
+      <c r="G13">
+        <v>2853922</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>163.73064110357726</v>
+      </c>
+      <c r="G14">
+        <v>2852812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>163.69190180032734</v>
+      </c>
+      <c r="G15">
+        <v>2852534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>163.53262473696515</v>
+      </c>
+      <c r="G16">
+        <v>2851391</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>163.47967173252275</v>
+      </c>
+      <c r="G17">
+        <v>2851011</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>163.41571007715686</v>
+      </c>
+      <c r="G18">
+        <v>2850552</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>163.3383708206687</v>
+      </c>
+      <c r="G19">
+        <v>2849997</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>163.19999625906007</v>
+      </c>
+      <c r="G20">
+        <v>2849004</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>163.06635959784893</v>
+      </c>
+      <c r="G21">
+        <v>2848045</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>162.61389010989009</v>
+      </c>
+      <c r="G22">
+        <v>2844798</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>162.61389010989009</v>
+      </c>
+      <c r="G23">
+        <v>2844798</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>162.40807014262333</v>
+      </c>
+      <c r="G24">
+        <v>2843321</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>162.26077718026653</v>
+      </c>
+      <c r="G25">
+        <v>2842264</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>162.05816226326866</v>
+      </c>
+      <c r="G26">
+        <v>2840810</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>161.8540144961421</v>
+      </c>
+      <c r="G27">
+        <v>2839345</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>161.65669487958849</v>
+      </c>
+      <c r="G28">
+        <v>2837929</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>161.56918307224691</v>
+      </c>
+      <c r="G29">
+        <v>2837301</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>161.40586485854573</v>
+      </c>
+      <c r="G30">
+        <v>2836129</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>161.30316389992984</v>
+      </c>
+      <c r="G31">
+        <v>2835392</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>161.09316343231234</v>
+      </c>
+      <c r="G32">
+        <v>2833885</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>160.8785644143091</v>
+      </c>
+      <c r="G33">
+        <v>2832345</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>160.65337479541734</v>
+      </c>
+      <c r="G34">
+        <v>2830729</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>160.49897498246432</v>
+      </c>
+      <c r="G35">
+        <v>2829621</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>160.35711667056347</v>
+      </c>
+      <c r="G36">
+        <v>2828603</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>160.35711667056347</v>
+      </c>
+      <c r="G37">
+        <v>2828603</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>160.29426981529107</v>
+      </c>
+      <c r="G38">
+        <v>2828152</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>160.20829085807807</v>
+      </c>
+      <c r="G39">
+        <v>2827535</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>160.13555015197571</v>
+      </c>
+      <c r="G40">
+        <v>2827013</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>160.04706289455225</v>
+      </c>
+      <c r="G41">
+        <v>2826378</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>159.94004208557399</v>
+      </c>
+      <c r="G42">
+        <v>2825610</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>159.77101052139352</v>
+      </c>
+      <c r="G43">
+        <v>2824397</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>159.69032686462472</v>
+      </c>
+      <c r="G44">
+        <v>2823818</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>159.69032686462472</v>
+      </c>
+      <c r="G45">
+        <v>2823818</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>159.62734065934069</v>
+      </c>
+      <c r="G46">
+        <v>2823366</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>159.47057189618894</v>
+      </c>
+      <c r="G47">
+        <v>2822241</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7">
+      <c r="G48">
+        <v>2820887</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7">
+      <c r="G49">
+        <v>2819843</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7">
+      <c r="G50">
+        <v>2818889</v>
+      </c>
+    </row>
+    <row r="51" spans="7:7">
+      <c r="G51">
+        <v>2818147</v>
+      </c>
+    </row>
+    <row r="52" spans="7:7">
+      <c r="G52">
+        <v>2817489</v>
+      </c>
+    </row>
+    <row r="53" spans="7:7">
+      <c r="G53">
+        <v>2816858</v>
+      </c>
+    </row>
+    <row r="54" spans="7:7">
+      <c r="G54">
+        <v>2816268</v>
+      </c>
+    </row>
+    <row r="55" spans="7:7">
+      <c r="G55">
+        <v>2816268</v>
       </c>
     </row>
   </sheetData>

--- a/Documentatie/RezultateExperimentale/W4W5_TerasaCameraSeara_CameraAerisita_Ne_0102_06.xlsx
+++ b/Documentatie/RezultateExperimentale/W4W5_TerasaCameraSeara_CameraAerisita_Ne_0102_06.xlsx
@@ -1811,24 +1811,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="116198400"/>
-        <c:axId val="116200192"/>
+        <c:axId val="108870656"/>
+        <c:axId val="109830912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116198400"/>
+        <c:axId val="108870656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116200192"/>
+        <c:crossAx val="109830912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116200192"/>
+        <c:axId val="109830912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,7 +1836,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116198400"/>
+        <c:crossAx val="108870656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1848,7 +1848,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2447,24 +2447,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="144445824"/>
-        <c:axId val="144447360"/>
+        <c:axId val="166388096"/>
+        <c:axId val="166389632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144445824"/>
+        <c:axId val="166388096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144447360"/>
+        <c:crossAx val="166389632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144447360"/>
+        <c:axId val="166389632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -2473,7 +2473,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144445824"/>
+        <c:crossAx val="166388096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2486,7 +2486,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3085,24 +3085,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="144484608"/>
-        <c:axId val="144486400"/>
+        <c:axId val="166922496"/>
+        <c:axId val="181288960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144484608"/>
+        <c:axId val="166922496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144486400"/>
+        <c:crossAx val="181288960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144486400"/>
+        <c:axId val="181288960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3110,7 +3110,1233 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144484608"/>
+        <c:crossAx val="166922496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.4762070304125975E-2"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.84629747440510406"/>
+          <c:h val="0.56604950422863864"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'W5'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'W5'!$B$2:$B$92</c:f>
+              <c:strCache>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>2/6/2020  11:11:17 AM - W5 Cam.Inchisa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2/6/2020 11:12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2/6/2020 11:13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2/6/2020 11:14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2/6/2020 11:15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2/6/2020 11:16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2/6/2020 11:17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2/6/2020 11:18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2/6/2020 11:19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2/6/2020 11:20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2/6/2020 11:21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2/6/2020 11:22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2/6/2020 11:23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2/6/2020 11:24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2/6/2020 11:25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2/6/2020 11:26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2/6/2020 11:27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2/6/2020 11:28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2/6/2020 11:29</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2/6/2020 11:30</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2/6/2020 11:31</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2/6/2020 11:32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2/6/2020 11:33</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2/6/2020 11:34</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2/6/2020 11:35</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2/6/2020 11:36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2/6/2020 11:37</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2/6/2020 11:38</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2/6/2020 11:39</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2/6/2020 11:40</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2/6/2020 11:43</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2/6/2020 11:44</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2/6/2020 11:45</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2/6/2020 11:46</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2/6/2020 11:47</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2/6/2020 11:50</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2/6/2020 11:51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2/6/2020 11:52</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2/6/2020 11:53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2/6/2020 11:54</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2/6/2020 11:55</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2/6/2020 11:56</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2/6/2020 11:57</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2/6/2020 11:58</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2/6/2020 11:59</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2/6/2020 12:00</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2/6/2020  2:12:52 AM - W5 Cam. Deschisa</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2/6/2020 2:13</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2/6/2020 2:14</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2/6/2020 2:15</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2/6/2020 2:16</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2/6/2020 2:17</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2/6/2020 2:18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2/6/2020 2:19</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2/6/2020 2:21</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2/6/2020 2:22</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2/6/2020 2:23</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2/6/2020 2:24</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2/6/2020 2:25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2/6/2020 2:26</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2/6/2020 2:29</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2/6/2020 2:30</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2/6/2020 2:31</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2/6/2020 2:32</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2/6/2020 2:33</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2/6/2020 2:34</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2/6/2020 2:35</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2/6/2020 2:36</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2/6/2020 2:37</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2/6/2020 2:38</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2/6/2020 2:39</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2/6/2020 2:40</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2/6/2020 2:41</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2/6/2020 2:42</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2/6/2020 2:43</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2/6/2020 2:44</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2/6/2020 2:45</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2/6/2020 2:46</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2/6/2020 2:52</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2/6/2020 2:53</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2/6/2020 2:54</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2/6/2020 2:55</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2/6/2020 2:56</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2/6/2020 2:57</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2/6/2020 2:58</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2/6/2020 2:59</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2/6/2020 3:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2/6/2020 3:01</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2/6/2020 3:02</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2/6/2020 3:03</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2/6/2020 3:04</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'W5'!$L$2:$L$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>20.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.02</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18.02</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>18.02</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>18.02</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>18.02</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>18.02</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>18.02</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>18.02</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>18.02</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>18.02</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>17.98</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>17.98</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>17.98</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>17.98</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>17.98</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>17.98</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>17.98</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>17.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>17.940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>17.940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>17.940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>17.940000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'W5'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Humid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'W5'!$B$2:$B$92</c:f>
+              <c:strCache>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>2/6/2020  11:11:17 AM - W5 Cam.Inchisa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2/6/2020 11:12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2/6/2020 11:13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2/6/2020 11:14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2/6/2020 11:15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2/6/2020 11:16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2/6/2020 11:17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2/6/2020 11:18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2/6/2020 11:19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2/6/2020 11:20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2/6/2020 11:21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2/6/2020 11:22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2/6/2020 11:23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2/6/2020 11:24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2/6/2020 11:25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2/6/2020 11:26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2/6/2020 11:27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2/6/2020 11:28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2/6/2020 11:29</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2/6/2020 11:30</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2/6/2020 11:31</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2/6/2020 11:32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2/6/2020 11:33</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2/6/2020 11:34</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2/6/2020 11:35</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2/6/2020 11:36</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2/6/2020 11:37</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2/6/2020 11:38</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2/6/2020 11:39</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2/6/2020 11:40</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2/6/2020 11:43</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2/6/2020 11:44</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2/6/2020 11:45</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2/6/2020 11:46</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2/6/2020 11:47</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2/6/2020 11:50</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2/6/2020 11:51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2/6/2020 11:52</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2/6/2020 11:53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2/6/2020 11:54</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2/6/2020 11:55</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2/6/2020 11:56</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2/6/2020 11:57</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2/6/2020 11:58</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2/6/2020 11:59</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2/6/2020 12:00</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2/6/2020  2:12:52 AM - W5 Cam. Deschisa</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2/6/2020 2:13</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2/6/2020 2:14</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2/6/2020 2:15</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2/6/2020 2:16</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2/6/2020 2:17</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2/6/2020 2:18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2/6/2020 2:19</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2/6/2020 2:21</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2/6/2020 2:22</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2/6/2020 2:23</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2/6/2020 2:24</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2/6/2020 2:25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2/6/2020 2:26</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2/6/2020 2:29</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2/6/2020 2:30</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2/6/2020 2:31</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2/6/2020 2:32</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2/6/2020 2:33</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2/6/2020 2:34</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2/6/2020 2:35</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2/6/2020 2:36</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2/6/2020 2:37</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2/6/2020 2:38</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2/6/2020 2:39</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2/6/2020 2:40</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2/6/2020 2:41</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2/6/2020 2:42</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2/6/2020 2:43</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2/6/2020 2:44</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2/6/2020 2:45</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2/6/2020 2:46</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2/6/2020 2:52</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2/6/2020 2:53</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2/6/2020 2:54</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2/6/2020 2:55</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2/6/2020 2:56</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2/6/2020 2:57</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2/6/2020 2:58</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2/6/2020 2:59</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2/6/2020 3:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2/6/2020 3:01</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2/6/2020 3:02</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2/6/2020 3:03</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2/6/2020 3:04</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'W5'!$M$2:$M$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>65.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>65.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>49.66</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.25</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48.25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>48.25</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>48.25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>48.25</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>48.25</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>48.25</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>48.25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>48.25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>48.25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>47.33</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>47.33</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>47.33</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>47.33</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>47.33</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>47.33</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>47.33</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>47.33</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>47.33</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>46.75</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>46.75</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>46.75</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>46.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="181303168"/>
+        <c:axId val="181304704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="181303168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="181304704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="181304704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="181303168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3129,1239 +4355,11 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.4762070304125962E-2"/>
-          <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.84629747440510394"/>
-          <c:h val="0.56604950422863853"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'W5'!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Temp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'W5'!$B$2:$B$92</c:f>
-              <c:strCache>
-                <c:ptCount val="91"/>
-                <c:pt idx="0">
-                  <c:v>2/6/2020  11:11:17 AM - W5 Cam.Inchisa</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2/6/2020 11:12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2/6/2020 11:13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2/6/2020 11:14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2/6/2020 11:15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2/6/2020 11:16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2/6/2020 11:17</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2/6/2020 11:18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2/6/2020 11:19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2/6/2020 11:20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2/6/2020 11:21</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2/6/2020 11:22</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2/6/2020 11:23</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2/6/2020 11:24</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2/6/2020 11:25</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2/6/2020 11:26</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2/6/2020 11:27</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2/6/2020 11:28</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2/6/2020 11:29</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2/6/2020 11:30</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2/6/2020 11:31</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2/6/2020 11:32</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2/6/2020 11:33</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2/6/2020 11:34</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2/6/2020 11:35</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2/6/2020 11:36</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2/6/2020 11:37</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2/6/2020 11:38</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2/6/2020 11:39</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2/6/2020 11:40</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2/6/2020 11:43</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2/6/2020 11:44</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2/6/2020 11:45</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2/6/2020 11:46</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2/6/2020 11:47</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2/6/2020 11:50</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2/6/2020 11:51</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2/6/2020 11:52</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2/6/2020 11:53</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2/6/2020 11:54</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2/6/2020 11:55</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2/6/2020 11:56</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2/6/2020 11:57</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2/6/2020 11:58</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2/6/2020 11:59</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2/6/2020 12:00</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2/6/2020  2:12:52 AM - W5 Cam. Deschisa</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2/6/2020 2:13</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2/6/2020 2:14</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2/6/2020 2:15</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2/6/2020 2:16</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2/6/2020 2:17</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2/6/2020 2:18</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2/6/2020 2:19</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2/6/2020 2:21</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2/6/2020 2:22</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2/6/2020 2:23</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2/6/2020 2:24</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2/6/2020 2:25</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2/6/2020 2:26</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2/6/2020 2:29</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2/6/2020 2:30</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2/6/2020 2:31</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2/6/2020 2:32</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2/6/2020 2:33</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2/6/2020 2:34</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2/6/2020 2:35</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2/6/2020 2:36</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2/6/2020 2:37</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2/6/2020 2:38</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2/6/2020 2:39</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2/6/2020 2:40</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2/6/2020 2:41</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2/6/2020 2:42</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2/6/2020 2:43</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2/6/2020 2:44</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2/6/2020 2:45</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2/6/2020 2:46</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2/6/2020 2:52</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2/6/2020 2:53</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2/6/2020 2:54</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2/6/2020 2:55</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2/6/2020 2:56</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2/6/2020 2:57</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2/6/2020 2:58</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2/6/2020 2:59</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2/6/2020 3:00</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2/6/2020 3:01</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2/6/2020 3:02</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2/6/2020 3:03</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2/6/2020 3:04</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'W5'!$L$2:$L$92</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
-                <c:pt idx="0">
-                  <c:v>20.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20.12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20.12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20.12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20.12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20.12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20.170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20.170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20.170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20.170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20.170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20.170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20.2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>20.36</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>18.149999999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>18.02</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>18.02</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>18.02</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>18.02</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>18.02</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>18.02</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>18.02</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>18.02</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>18.02</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>18.02</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>17.98</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>17.98</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>17.98</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>17.98</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>17.98</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>17.98</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>17.98</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>17.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>17.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>17.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>17.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>17.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>17.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>17.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>17.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>17.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>17.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>17.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>17.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>17.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>17.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>17.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>17.940000000000001</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>17.940000000000001</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>17.940000000000001</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>17.940000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'W5'!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Humid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'W5'!$B$2:$B$92</c:f>
-              <c:strCache>
-                <c:ptCount val="91"/>
-                <c:pt idx="0">
-                  <c:v>2/6/2020  11:11:17 AM - W5 Cam.Inchisa</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2/6/2020 11:12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2/6/2020 11:13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2/6/2020 11:14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2/6/2020 11:15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2/6/2020 11:16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2/6/2020 11:17</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2/6/2020 11:18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2/6/2020 11:19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2/6/2020 11:20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2/6/2020 11:21</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2/6/2020 11:22</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2/6/2020 11:23</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2/6/2020 11:24</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2/6/2020 11:25</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2/6/2020 11:26</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2/6/2020 11:27</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2/6/2020 11:28</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2/6/2020 11:29</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2/6/2020 11:30</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2/6/2020 11:31</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2/6/2020 11:32</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2/6/2020 11:33</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2/6/2020 11:34</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2/6/2020 11:35</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2/6/2020 11:36</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2/6/2020 11:37</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2/6/2020 11:38</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2/6/2020 11:39</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2/6/2020 11:40</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2/6/2020 11:43</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2/6/2020 11:44</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2/6/2020 11:45</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2/6/2020 11:46</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2/6/2020 11:47</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2/6/2020 11:50</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2/6/2020 11:51</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2/6/2020 11:52</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2/6/2020 11:53</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2/6/2020 11:54</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2/6/2020 11:55</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2/6/2020 11:56</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2/6/2020 11:57</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2/6/2020 11:58</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2/6/2020 11:59</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2/6/2020 12:00</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2/6/2020  2:12:52 AM - W5 Cam. Deschisa</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2/6/2020 2:13</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2/6/2020 2:14</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2/6/2020 2:15</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2/6/2020 2:16</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2/6/2020 2:17</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2/6/2020 2:18</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2/6/2020 2:19</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2/6/2020 2:21</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2/6/2020 2:22</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2/6/2020 2:23</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2/6/2020 2:24</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2/6/2020 2:25</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2/6/2020 2:26</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2/6/2020 2:29</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2/6/2020 2:30</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2/6/2020 2:31</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2/6/2020 2:32</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2/6/2020 2:33</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2/6/2020 2:34</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2/6/2020 2:35</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2/6/2020 2:36</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2/6/2020 2:37</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2/6/2020 2:38</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2/6/2020 2:39</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2/6/2020 2:40</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2/6/2020 2:41</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2/6/2020 2:42</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2/6/2020 2:43</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2/6/2020 2:44</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2/6/2020 2:45</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2/6/2020 2:46</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2/6/2020 2:52</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2/6/2020 2:53</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2/6/2020 2:54</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2/6/2020 2:55</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2/6/2020 2:56</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2/6/2020 2:57</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2/6/2020 2:58</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2/6/2020 2:59</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2/6/2020 3:00</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2/6/2020 3:01</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2/6/2020 3:02</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2/6/2020 3:03</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2/6/2020 3:04</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'W5'!$M$2:$M$92</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
-                <c:pt idx="0">
-                  <c:v>66.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>66.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65.75</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>65.75</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>65.75</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>65.75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>65.75</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>65.75</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>65.75</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>65.75</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>65.75</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>65.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>65.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>65.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>65.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>65.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>65.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>65.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>65.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>65.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>49.66</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48.25</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48.25</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>48.25</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>48.25</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>48.25</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>48.25</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>48.25</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>48.25</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>48.25</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>48.25</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>47.6</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>47.6</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>47.6</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>47.6</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>47.6</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>47.6</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>47.6</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>47.33</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>47.33</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>47.33</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>47.33</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>47.33</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>47.33</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>47.33</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>47.33</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>47.33</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>46.75</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>46.75</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>46.75</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>46.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="144525184"/>
-        <c:axId val="144526720"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="144525184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144526720"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="144526720"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="10"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144525184"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -4948,24 +4946,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="144539008"/>
-        <c:axId val="144569472"/>
+        <c:axId val="181525888"/>
+        <c:axId val="181675136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144539008"/>
+        <c:axId val="181525888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144569472"/>
+        <c:crossAx val="181675136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144569472"/>
+        <c:axId val="181675136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4973,20 +4971,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144539008"/>
+        <c:crossAx val="181525888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4996,9 +4993,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -5585,24 +5580,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="144594432"/>
-        <c:axId val="144595968"/>
+        <c:axId val="181704192"/>
+        <c:axId val="181705728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144594432"/>
+        <c:axId val="181704192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144595968"/>
+        <c:crossAx val="181705728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144595968"/>
+        <c:axId val="181705728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="68"/>
@@ -5612,20 +5607,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144594432"/>
+        <c:crossAx val="181704192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6786,24 +6780,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="116245248"/>
-        <c:axId val="116246784"/>
+        <c:axId val="109879680"/>
+        <c:axId val="109881216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116245248"/>
+        <c:axId val="109879680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116246784"/>
+        <c:crossAx val="109881216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116246784"/>
+        <c:axId val="109881216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6811,7 +6805,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116245248"/>
+        <c:crossAx val="109879680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6823,7 +6817,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6833,9 +6827,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -7986,24 +7978,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="116672384"/>
-        <c:axId val="116673920"/>
+        <c:axId val="110163456"/>
+        <c:axId val="110164992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116672384"/>
+        <c:axId val="110163456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="t"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116673920"/>
+        <c:crossAx val="110164992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116673920"/>
+        <c:axId val="110164992"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -8011,20 +8003,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116672384"/>
+        <c:crossAx val="110163456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8641,24 +8632,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="116806016"/>
-        <c:axId val="116807552"/>
+        <c:axId val="117321728"/>
+        <c:axId val="117323264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116806016"/>
+        <c:axId val="117321728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116807552"/>
+        <c:crossAx val="117323264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116807552"/>
+        <c:axId val="117323264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8666,7 +8657,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116806016"/>
+        <c:crossAx val="117321728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8679,7 +8670,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9296,24 +9287,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="116828416"/>
-        <c:axId val="116830208"/>
+        <c:axId val="117553024"/>
+        <c:axId val="117554560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116828416"/>
+        <c:axId val="117553024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116830208"/>
+        <c:crossAx val="117554560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116830208"/>
+        <c:axId val="117554560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -9322,7 +9313,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116828416"/>
+        <c:crossAx val="117553024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9335,7 +9326,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9952,24 +9943,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="118186368"/>
-        <c:axId val="118187904"/>
+        <c:axId val="155869184"/>
+        <c:axId val="155870720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118186368"/>
+        <c:axId val="155869184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118187904"/>
+        <c:crossAx val="155870720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118187904"/>
+        <c:axId val="155870720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9977,7 +9968,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118186368"/>
+        <c:crossAx val="155869184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9990,7 +9981,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10607,24 +10598,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="118200576"/>
-        <c:axId val="118214656"/>
+        <c:axId val="161351552"/>
+        <c:axId val="161353088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118200576"/>
+        <c:axId val="161351552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118214656"/>
+        <c:crossAx val="161353088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118214656"/>
+        <c:axId val="161353088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10632,7 +10623,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118200576"/>
+        <c:crossAx val="161351552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10645,7 +10636,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11244,24 +11235,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="118358400"/>
-        <c:axId val="118359936"/>
+        <c:axId val="166306176"/>
+        <c:axId val="166307712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118358400"/>
+        <c:axId val="166306176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118359936"/>
+        <c:crossAx val="166307712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118359936"/>
+        <c:axId val="166307712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11269,7 +11260,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118358400"/>
+        <c:crossAx val="166306176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11282,7 +11273,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11881,24 +11872,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="118401280"/>
-        <c:axId val="118403072"/>
+        <c:axId val="166340864"/>
+        <c:axId val="166359040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118401280"/>
+        <c:axId val="166340864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118403072"/>
+        <c:crossAx val="166359040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118403072"/>
+        <c:axId val="166359040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11906,7 +11897,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118401280"/>
+        <c:crossAx val="166340864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11919,7 +11910,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -55334,8 +55325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -59918,7 +59909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView topLeftCell="I13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G47"/>
     </sheetView>
   </sheetViews>
@@ -64254,51 +64245,51 @@
     </row>
     <row r="94" spans="1:15">
       <c r="C94">
-        <f>AVERAGE(C2:C47)</f>
+        <f t="shared" ref="C94:N94" si="0">AVERAGE(C2:C47)</f>
         <v>29.173913043478262</v>
       </c>
       <c r="D94">
-        <f>AVERAGE(D2:D47)</f>
+        <f t="shared" si="0"/>
         <v>94.956521739130437</v>
       </c>
       <c r="E94">
-        <f>AVERAGE(E2:E47)</f>
+        <f t="shared" si="0"/>
         <v>181.39130434782609</v>
       </c>
       <c r="F94">
-        <f>AVERAGE(F2:F47)</f>
+        <f t="shared" si="0"/>
         <v>110.08695652173913</v>
       </c>
       <c r="G94">
-        <f>AVERAGE(G2:G47)</f>
+        <f t="shared" si="0"/>
         <v>1689970.6521739131</v>
       </c>
       <c r="H94">
-        <f>AVERAGE(H2:H47)</f>
+        <f t="shared" si="0"/>
         <v>5626879.1304347822</v>
       </c>
       <c r="I94">
-        <f>AVERAGE(I2:I47)</f>
+        <f t="shared" si="0"/>
         <v>1689353.956521739</v>
       </c>
       <c r="J94">
-        <f>AVERAGE(J2:J47)</f>
+        <f t="shared" si="0"/>
         <v>5624120.6304347822</v>
       </c>
       <c r="K94">
-        <f>AVERAGE(K2:K47)</f>
+        <f t="shared" si="0"/>
         <v>181.39130434782609</v>
       </c>
       <c r="L94">
-        <f>AVERAGE(L2:L47)</f>
+        <f t="shared" si="0"/>
         <v>20.225869565217405</v>
       </c>
       <c r="M94">
-        <f>AVERAGE(M2:M47)</f>
+        <f t="shared" si="0"/>
         <v>65.159782608695664</v>
       </c>
       <c r="N94">
-        <f>AVERAGE(N2:N47)</f>
+        <f t="shared" si="0"/>
         <v>999.55065217391325</v>
       </c>
     </row>
@@ -64308,47 +64299,47 @@
         <v>15.155555555555555</v>
       </c>
       <c r="D95">
-        <f t="shared" ref="D95:N95" si="0">AVERAGE(D48:D92)</f>
+        <f t="shared" ref="D95:N95" si="1">AVERAGE(D48:D92)</f>
         <v>95.533333333333331</v>
       </c>
       <c r="E95">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>146.48888888888888</v>
       </c>
       <c r="F95">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>96.533333333333331</v>
       </c>
       <c r="G95">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1684140.5333333334</v>
       </c>
       <c r="H95">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5627017.0888888892</v>
       </c>
       <c r="I95">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1685725.3333333333</v>
       </c>
       <c r="J95">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5624442.0666666664</v>
       </c>
       <c r="K95">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>147.06666666666666</v>
       </c>
       <c r="L95">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.932666666666673</v>
       </c>
       <c r="M95">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47.473999999999997</v>
       </c>
       <c r="N95">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>999.35622222222264</v>
       </c>
     </row>

--- a/Documentatie/RezultateExperimentale/W4W5_TerasaCameraSeara_CameraAerisita_Ne_0102_06.xlsx
+++ b/Documentatie/RezultateExperimentale/W4W5_TerasaCameraSeara_CameraAerisita_Ne_0102_06.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="630" windowWidth="19575" windowHeight="7380" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="720" yWindow="630" windowWidth="19575" windowHeight="7380" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="W4W5_TerasaCameraSeara_CameraAe" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="32">
   <si>
     <t>Device</t>
   </si>
@@ -104,6 +104,19 @@
   </si>
   <si>
     <t>2/6/2020  2:12:52 AM - W5 Cam. Deschisa</t>
+  </si>
+  <si>
+    <t>2/6/2020  12:48:22 PM - Cam.Deschisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W4(σ)
+</t>
+  </si>
+  <si>
+    <t>W5(σ)</t>
+  </si>
+  <si>
+    <t>σ</t>
   </si>
 </sst>
 </file>
@@ -594,7 +607,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -605,6 +618,9 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1811,24 +1827,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="108870656"/>
-        <c:axId val="109830912"/>
+        <c:axId val="129895424"/>
+        <c:axId val="129897216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108870656"/>
+        <c:axId val="129895424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109830912"/>
+        <c:crossAx val="129897216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109830912"/>
+        <c:axId val="129897216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,7 +1852,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108870656"/>
+        <c:crossAx val="129895424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1848,7 +1864,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1858,9 +1874,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2447,24 +2461,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="166388096"/>
-        <c:axId val="166389632"/>
+        <c:axId val="132129152"/>
+        <c:axId val="132130688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166388096"/>
+        <c:axId val="132129152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166389632"/>
+        <c:crossAx val="132130688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166389632"/>
+        <c:axId val="132130688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -2473,20 +2487,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166388096"/>
+        <c:crossAx val="132129152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2496,9 +2509,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -3085,24 +3096,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="166922496"/>
-        <c:axId val="181288960"/>
+        <c:axId val="132167936"/>
+        <c:axId val="132169728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166922496"/>
+        <c:axId val="132167936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181288960"/>
+        <c:crossAx val="132169728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181288960"/>
+        <c:axId val="132169728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3110,20 +3121,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166922496"/>
+        <c:crossAx val="132167936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3139,9 +3149,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4762070304125975E-2"/>
+          <c:x val="4.4762070304125996E-2"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.84629747440510406"/>
+          <c:w val="0.84629747440510428"/>
           <c:h val="0.56604950422863864"/>
         </c:manualLayout>
       </c:layout>
@@ -4310,24 +4320,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="181303168"/>
-        <c:axId val="181304704"/>
+        <c:axId val="132073344"/>
+        <c:axId val="132074880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181303168"/>
+        <c:axId val="132073344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181304704"/>
+        <c:crossAx val="132074880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181304704"/>
+        <c:axId val="132074880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -4336,20 +4346,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181303168"/>
+        <c:crossAx val="132073344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4946,24 +4955,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="181525888"/>
-        <c:axId val="181675136"/>
+        <c:axId val="132087168"/>
+        <c:axId val="132117632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181525888"/>
+        <c:axId val="132087168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181675136"/>
+        <c:crossAx val="132117632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181675136"/>
+        <c:axId val="132117632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4971,7 +4980,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181525888"/>
+        <c:crossAx val="132087168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4983,7 +4992,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5580,24 +5589,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="181704192"/>
-        <c:axId val="181705728"/>
+        <c:axId val="132208128"/>
+        <c:axId val="132209664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181704192"/>
+        <c:axId val="132208128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181705728"/>
+        <c:crossAx val="132209664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181705728"/>
+        <c:axId val="132209664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="68"/>
@@ -5607,7 +5616,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181704192"/>
+        <c:crossAx val="132208128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5619,7 +5628,184 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FormuleW4!$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W4(σ)
+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FormuleW4!$A$51:$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>CO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NO2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SO2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>O3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FormuleW4!$B$51:$B$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10095</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1618</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>630</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FormuleW4!$C$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W5(σ)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FormuleW4!$A$51:$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>CO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NO2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SO2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>O3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FormuleW4!$C$51:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1230</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>670</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="113469312"/>
+        <c:axId val="113476736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="113469312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113476736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="113476736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2000"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113469312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6780,24 +6966,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="109879680"/>
-        <c:axId val="109881216"/>
+        <c:axId val="129942272"/>
+        <c:axId val="129943808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109879680"/>
+        <c:axId val="129942272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109881216"/>
+        <c:crossAx val="129943808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109881216"/>
+        <c:axId val="129943808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6805,7 +6991,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109879680"/>
+        <c:crossAx val="129942272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6817,7 +7003,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7978,24 +8164,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="110163456"/>
-        <c:axId val="110164992"/>
+        <c:axId val="130697088"/>
+        <c:axId val="130698624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110163456"/>
+        <c:axId val="130697088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="t"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110164992"/>
+        <c:crossAx val="130698624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110164992"/>
+        <c:axId val="130698624"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -8003,7 +8189,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110163456"/>
+        <c:crossAx val="130697088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8015,7 +8201,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8175,7 +8361,7 @@
                   <c:v>2/6/2020 11:08</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2/6/2020  12:48:22 PM - W4 Cam.Deschisa</c:v>
+                  <c:v>2/6/2020  12:48:22 PM - Cam.Deschisa</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>2/6/2020 12:49</c:v>
@@ -8632,24 +8818,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="117321728"/>
-        <c:axId val="117323264"/>
+        <c:axId val="130769280"/>
+        <c:axId val="130770816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117321728"/>
+        <c:axId val="130769280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117323264"/>
+        <c:crossAx val="130770816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117323264"/>
+        <c:axId val="130770816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8657,7 +8843,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117321728"/>
+        <c:crossAx val="130769280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8670,7 +8856,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8830,7 +9016,7 @@
                   <c:v>2/6/2020 11:08</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2/6/2020  12:48:22 PM - W4 Cam.Deschisa</c:v>
+                  <c:v>2/6/2020  12:48:22 PM - Cam.Deschisa</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>2/6/2020 12:49</c:v>
@@ -9287,24 +9473,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="117553024"/>
-        <c:axId val="117554560"/>
+        <c:axId val="130795776"/>
+        <c:axId val="130797568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117553024"/>
+        <c:axId val="130795776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117554560"/>
+        <c:crossAx val="130797568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117554560"/>
+        <c:axId val="130797568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -9313,7 +9499,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117553024"/>
+        <c:crossAx val="130795776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9326,7 +9512,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9486,7 +9672,7 @@
                   <c:v>2/6/2020 11:08</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2/6/2020  12:48:22 PM - W4 Cam.Deschisa</c:v>
+                  <c:v>2/6/2020  12:48:22 PM - Cam.Deschisa</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>2/6/2020 12:49</c:v>
@@ -9943,24 +10129,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="155869184"/>
-        <c:axId val="155870720"/>
+        <c:axId val="130830720"/>
+        <c:axId val="130832256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155869184"/>
+        <c:axId val="130830720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155870720"/>
+        <c:crossAx val="130832256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155870720"/>
+        <c:axId val="130832256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9968,7 +10154,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155869184"/>
+        <c:crossAx val="130830720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9981,7 +10167,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10141,7 +10327,7 @@
                   <c:v>2/6/2020 11:08</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2/6/2020  12:48:22 PM - W4 Cam.Deschisa</c:v>
+                  <c:v>2/6/2020  12:48:22 PM - Cam.Deschisa</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>2/6/2020 12:49</c:v>
@@ -10598,24 +10784,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="161351552"/>
-        <c:axId val="161353088"/>
+        <c:axId val="130844928"/>
+        <c:axId val="130859008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161351552"/>
+        <c:axId val="130844928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161353088"/>
+        <c:crossAx val="130859008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161353088"/>
+        <c:axId val="130859008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10623,7 +10809,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161351552"/>
+        <c:crossAx val="130844928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10636,7 +10822,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10646,9 +10832,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -11235,24 +11419,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="166306176"/>
-        <c:axId val="166307712"/>
+        <c:axId val="131002752"/>
+        <c:axId val="131004288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166306176"/>
+        <c:axId val="131002752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166307712"/>
+        <c:crossAx val="131004288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166307712"/>
+        <c:axId val="131004288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11260,20 +11444,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166306176"/>
+        <c:crossAx val="131002752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11283,9 +11466,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -11872,24 +12053,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="166340864"/>
-        <c:axId val="166359040"/>
+        <c:axId val="130918656"/>
+        <c:axId val="130920448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166340864"/>
+        <c:axId val="130918656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166359040"/>
+        <c:crossAx val="130920448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166359040"/>
+        <c:axId val="130920448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11897,20 +12078,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166340864"/>
+        <c:crossAx val="130918656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12351,6 +12531,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>303557</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>87382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>611670</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>163582</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -55325,8 +55540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="J66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N83" sqref="N83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -57266,7 +57481,7 @@
         <v>17</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C42" s="3">
         <v>500</v>
@@ -64391,10 +64606,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -64884,48 +65099,64 @@
         <v>2822241</v>
       </c>
     </row>
-    <row r="48" spans="3:7">
-      <c r="G48">
-        <v>2820887</v>
-      </c>
-    </row>
-    <row r="49" spans="7:7">
-      <c r="G49">
-        <v>2819843</v>
-      </c>
-    </row>
-    <row r="50" spans="7:7">
-      <c r="G50">
-        <v>2818889</v>
-      </c>
-    </row>
-    <row r="51" spans="7:7">
-      <c r="G51">
-        <v>2818147</v>
-      </c>
-    </row>
-    <row r="52" spans="7:7">
-      <c r="G52">
-        <v>2817489</v>
-      </c>
-    </row>
-    <row r="53" spans="7:7">
-      <c r="G53">
-        <v>2816858</v>
-      </c>
-    </row>
-    <row r="54" spans="7:7">
-      <c r="G54">
-        <v>2816268</v>
-      </c>
-    </row>
-    <row r="55" spans="7:7">
-      <c r="G55">
-        <v>2816268</v>
+    <row r="50" spans="1:5" ht="30">
+      <c r="B50" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>10095</v>
+      </c>
+      <c r="C51">
+        <v>908</v>
+      </c>
+      <c r="E51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>356</v>
+      </c>
+      <c r="C52">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>1618</v>
+      </c>
+      <c r="C53">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>630</v>
+      </c>
+      <c r="C54">
+        <v>670</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
